--- a/aoiConditions/train2P1Block11.xlsx
+++ b/aoiConditions/train2P1Block11.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/22_kakoki1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti2.wav</t>
-  </si>
-  <si>
-    <t>pngimages/22_egg.png</t>
-  </si>
-  <si>
-    <t>pngimages/04_ladder.png</t>
+    <t>trainingaudio/26_kapako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/26_pineapple.png</t>
+  </si>
+  <si>
+    <t>pngimages/21_cheese.png</t>
   </si>
 </sst>
 </file>
